--- a/tests/fixtures/sample-members/valid-data-check-admin-login.xlsx
+++ b/tests/fixtures/sample-members/valid-data-check-admin-login.xlsx
@@ -28,13 +28,13 @@
     <t>saloni@yopmail.com</t>
   </si>
   <si>
-    <t>Prakash</t>
+    <t>Jayesh</t>
   </si>
   <si>
-    <t>Fenil</t>
+    <t>Rajul</t>
   </si>
   <si>
-    <t>Seema</t>
+    <t>Samarth</t>
   </si>
 </sst>
 </file>
@@ -883,7 +883,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
